--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Indonesia\eps-1.2.1-WIP-B\InputData\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="23000" windowHeight="11580"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -28,28 +28,34 @@
     <t>Source:</t>
   </si>
   <si>
+    <t xml:space="preserve">North American Electrict Reliability Coorporation </t>
+  </si>
+  <si>
+    <t>http://www.nerc.com/pa/RAPA/ra/Reliability%20Assessments%20DL/2015_Summer_Reliability_Assessment.pdf</t>
+  </si>
+  <si>
+    <t>p.3, Table 1: Projected Demand, Resources, and Planning Reserve Margins, NERC Reference Margin Level (%)</t>
+  </si>
+  <si>
+    <t>2015 Summer Reliability Assessment</t>
+  </si>
+  <si>
     <t>Reserve Margin</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>countries that project changes in future reserve margin by year.</t>
-  </si>
-  <si>
-    <t>The Lantau Group</t>
-  </si>
-  <si>
-    <t>Developments in the Indonesian Power Sector</t>
-  </si>
-  <si>
-    <t>http://www.lantaugroup.com/files/ppt_pgene16_sf.pdf</t>
-  </si>
-  <si>
-    <t>p. 16</t>
-  </si>
-  <si>
-    <t>The reserve margin in the Indonesia dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support</t>
+    <t xml:space="preserve">The reserve margin (difference between the total generation available and the forecasted peak demand) in the U.S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support countries that project </t>
+  </si>
+  <si>
+    <t>changes in future reserve margin by year.</t>
+  </si>
+  <si>
+    <t>(dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -404,60 +410,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -473,16 +484,19 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1">
         <v>2015</v>
       </c>
@@ -592,117 +606,117 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="G2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="H2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="I2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="J2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="K2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="L2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="M2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="N2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="O2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="P2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="R2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="S2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="T2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="U2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="V2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="W2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="X2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AD2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AF2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AG2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AH2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AI2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AJ2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.35</v>
+        <v>0.14119999999999999</v>
       </c>
     </row>
   </sheetData>
